--- a/loaded_influencer_data/ugcblairee/ugcblairee_video.xlsx
+++ b/loaded_influencer_data/ugcblairee/ugcblairee_video.xlsx
@@ -506,69 +506,69 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7486645415643827464</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>424</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>#ilovemybf #fyppppppppppppppppppppppp</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7.311320754716981</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.839622641509433</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7075471698113208</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/photo/7486568792860986632</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>289</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>#ilovemybf #fyppppppppppppppppppppppp</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5.367231638418079</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.084745762711865</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.2824858757062147</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5649717514124294</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/photo/7486644004193422610</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>343</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -578,247 +578,247 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>@Colourette Cosmetics #makeup #grwm #makeuptutorial #skintint #firstbaseskintint #colourettecosmetics</t>
+          <t>#ohdearperfume #sweetsolace #harmonybreez #perfume #perfumetiktok #fyp</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.623906705539359</v>
+        <v>3.114186851211072</v>
       </c>
       <c r="I3" t="n">
-        <v>2.623906705539359</v>
+        <v>2.768166089965398</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.3460207612456748</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2915451895043732</v>
+        <v>0.3460207612456748</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-03-28</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/photo/7486568792860986632</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/video/7486560683119742215</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>#ohdearperfume #sweetsolace #harmonybreez</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5.263157894736842</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.56140350877193</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7017543859649122</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.052631578947368</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/video/7486190097080012050</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>#ohdearperfume #sweetsolace #harmonybreez #perfume #perfumetiktok #fyp</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1.893939393939394</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.515151515151515</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3787878787878788</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3787878787878788</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/video/7486560683119742215</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>245</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>#ohdearperfume #sweetsolace #harmonybreez #perfume</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5.391600454029512</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.391600454029512</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2270147559591373</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/video/7485906497960987911</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>918</v>
+      </c>
+      <c r="C6" t="n">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>#ohdearperfume #sweetsolace #harmonybreez</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2.857142857142857</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.448979591836735</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4081632653061225</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.8163265306122449</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/video/7486190097080012050</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1682</v>
-      </c>
-      <c r="C6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Simple Makeup Look💄 #grwm #makeup #colourettecosmetics #contest</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8.496732026143791</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.971677559912854</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.525054466230937</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6535947712418301</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/photo/7482531684919823634</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>356</v>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>#ohdearperfume #sweetsolace #harmonybreez #perfume</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5.231866825208085</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.231866825208085</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2378121284185493</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/video/7485906497960987911</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>859</v>
-      </c>
-      <c r="C7" t="n">
-        <v>54</v>
-      </c>
-      <c r="D7" t="n">
-        <v>13</v>
-      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Simple Makeup Look💄 #grwm #makeup #colourettecosmetics #contest</t>
+          <t>#dalangin #him #ilovehimsomuch #iminlove #ilovemybf #ilovehim #bf #reposting #makethisviral</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.799767171129219</v>
+        <v>8.707865168539326</v>
       </c>
       <c r="I7" t="n">
-        <v>6.286379511059372</v>
+        <v>7.584269662921349</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1.513387660069849</v>
+        <v>1.123595505617978</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4656577415599534</v>
+        <v>0.8426966292134831</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-17</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/photo/7482531684919823634</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/video/7479823082413182216</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -828,236 +828,236 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>#dalangin #him #ilovehimsomuch #iminlove #ilovemybf #ilovehim #bf #reposting #makethisviral</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8.882521489971348</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.736389684813753</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.146131805157593</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8595988538681949</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/video/7479823082413182216</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>312</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
           <t>First time trying out the Colourette first base Skintint I am so impressed 😩 @Colourette Cosmetics
 #makeup</t>
         </is>
       </c>
+      <c r="H8" t="n">
+        <v>11.0410094637224</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.886435331230284</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.154574132492113</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9463722397476341</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/photo/7478653324342906120</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>313</v>
+      </c>
+      <c r="C9" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>#ohdearperfume #harmonybreeze #sweetsolace #ohdearperfumereview #fyppppppppppppppppppppppp</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>10.57692307692308</v>
+        <v>10.54313099041534</v>
       </c>
       <c r="I9" t="n">
-        <v>7.692307692307693</v>
+        <v>8.945686900958465</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>2.884615384615385</v>
+        <v>1.597444089456869</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9615384615384616</v>
+        <v>1.597444089456869</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-06</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/photo/7478653324342906120</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/video/7474369261570428168</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>294</v>
+        <v>521</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>#ohdearperfume #harmonybreeze #sweetsolace #ohdearperfumereview #fyppppppppppppppppppppppp</t>
+          <t>My two holy grail mascaras. #beautyph #beautytok #makeup #makeuptok #mascara #maybelline #blk</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10.8843537414966</v>
+        <v>16.69865642994242</v>
       </c>
       <c r="I10" t="n">
-        <v>9.183673469387756</v>
+        <v>12.09213051823416</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.700680272108844</v>
+        <v>4.606525911708253</v>
       </c>
       <c r="L10" t="n">
-        <v>1.700680272108844</v>
+        <v>2.303262955854127</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-02-23</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcblairee/photo/7486644004193422610</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>343</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>@Colourette Cosmetics #makeup #grwm #makeuptutorial #skintint #firstbaseskintint #colourettecosmetics</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2.623906705539359</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.623906705539359</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.2915451895043732</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7476422216138116359</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>283</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>21</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>6</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>I really love this fake bangs😩#hair #fakebangs #wig #fakehair #bangs #makeup #wigbangs</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>9.540636042402827</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>7.420494699646643</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>2.120141342756184</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.7067137809187279</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcblairee/video/7474369261570428168</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>517</v>
-      </c>
-      <c r="C12" t="n">
-        <v>63</v>
-      </c>
-      <c r="D12" t="n">
-        <v>24</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>My two holy grail mascaras. #beautyph #beautytok #makeup #makeuptok #mascara #maybelline #blk</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>16.82785299806577</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12.18568665377176</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.642166344294004</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.321083172147002</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-    </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7472937653143457032</t>
         </is>
@@ -1107,7 +1107,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7472309647307721991</t>
         </is>
@@ -1157,7 +1157,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7471447882558721287</t>
         </is>
@@ -1207,7 +1207,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7471444821576633618</t>
         </is>
@@ -1257,7 +1257,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7471417649226861831</t>
         </is>
@@ -1308,7 +1308,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7471415807713545490</t>
         </is>
@@ -1359,7 +1359,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7469963704650517778</t>
         </is>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7468578050037402898</t>
         </is>
@@ -1460,7 +1460,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7468233950859693320</t>
         </is>
@@ -1510,7 +1510,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7467830504713145608</t>
         </is>
@@ -1562,7 +1562,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7465896787748965639</t>
         </is>
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7465633856599657746</t>
         </is>
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7464814460553661714</t>
         </is>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7464558219713711378</t>
         </is>
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7464041934521175303</t>
         </is>
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7464011172254092552</t>
         </is>
@@ -1864,7 +1864,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7463722835744165127</t>
         </is>
@@ -1914,7 +1914,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7463691450493013266</t>
         </is>
@@ -1964,7 +1964,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/video/7463365089706462472</t>
         </is>
@@ -2014,7 +2014,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcblairee/photo/7463352324010839314</t>
         </is>
